--- a/katalon documents/Assignment_2_Anagandula Nikhil kumar_Software_Automation_Testing new.xlsx
+++ b/katalon documents/Assignment_2_Anagandula Nikhil kumar_Software_Automation_Testing new.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\katalon project files\katalon documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F25F64-56D8-4D71-9AFF-4073A704F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF622F53-6604-4C64-85D0-0BBF95ABC799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C66F51C8-2556-4A38-B269-ACF11A811790}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" firstSheet="3" activeTab="5" xr2:uid="{C66F51C8-2556-4A38-B269-ACF11A811790}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Scenarios_ for Amazon" sheetId="1" r:id="rId1"/>
     <sheet name="Test case template for amazon" sheetId="4" r:id="rId2"/>
     <sheet name=" Test Data Table 01" sheetId="3" r:id="rId3"/>
-    <sheet name="Table 2" sheetId="6" r:id="rId4"/>
-    <sheet name="Table 3" sheetId="9" r:id="rId5"/>
+    <sheet name="test data" sheetId="6" r:id="rId4"/>
+    <sheet name="Test DATA table 02" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Table 2'!$A$1:$B$3</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'test data'!$A$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -407,12 +408,6 @@
     <t>Nikhil Anagandula,919392201557,nikhil@1846</t>
   </si>
   <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>user  name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -422,20 +417,56 @@
     <t>www.Amazon.in</t>
   </si>
   <si>
-    <t>Table_03</t>
-  </si>
-  <si>
-    <t>Input email</t>
-  </si>
-  <si>
-    <t>Input Password</t>
+    <t>Test Data/Input Data</t>
+  </si>
+  <si>
+    <t>Expected Values</t>
+  </si>
+  <si>
+    <t>Books,Da vinci code</t>
+  </si>
+  <si>
+    <t>Books category should be selected and items related to  Da vinci code should be displayed</t>
+  </si>
+  <si>
+    <t>Electronics, Mobile phones</t>
+  </si>
+  <si>
+    <t>Electronics category should be selected and items related to Mobile phones should be displayed</t>
+  </si>
+  <si>
+    <t>Home appliances, Washine machine</t>
+  </si>
+  <si>
+    <t>Home appliances category should be selected and items related to washine machine should be displayed</t>
+  </si>
+  <si>
+    <t>Furniture, Wooden tables</t>
+  </si>
+  <si>
+    <t>Furniture category should be selected and items related to Wooden tables should be displayed</t>
+  </si>
+  <si>
+    <t>Table -02</t>
+  </si>
+  <si>
+    <t>nikhilanagandula846@gmail.com</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>AmazonHome</t>
+  </si>
+  <si>
+    <t>sign in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,8 +526,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="15.4"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +560,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -527,13 +584,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,10 +684,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{84B3FEED-E89D-4EA7-AC3A-4AE853520885}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -637,8 +764,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF92F3A7-7652-4ED3-A9C4-0BDFFBF41D3F}" name="Table3_1" displayName="Table3_1" ref="A1:B3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B3" xr:uid="{FF92F3A7-7652-4ED3-A9C4-0BDFFBF41D3F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E10BB06-99A2-424A-BA53-4EEB3C55D3FF}" uniqueName="1" name="Table 2" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E189BD8E-4CE3-4C28-AACC-82634F02413E}" uniqueName="2" name="Column1" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2E10BB06-99A2-424A-BA53-4EEB3C55D3FF}" uniqueName="1" name="user name" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{E189BD8E-4CE3-4C28-AACC-82634F02413E}" uniqueName="2" name="password" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -943,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8F32F4-0B48-46D9-8D03-2FA31E00DFF2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1151,7 +1278,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>29</v>
@@ -1627,89 +1754,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B5CCCC-95F2-42D7-937C-132EA7AD1A62}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>9392201557</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2EBD2469-EE14-473F-9F10-73A00285D44C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67344408-91FA-43CC-9BA9-FA23D9825FD0}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E71ECEE-5D95-4A62-BAE4-810BB119C594}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A428B6DB-88CF-4C5C-9B2D-1BAE44A83157}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>9392201557</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>79</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{C900962C-6A88-4AF7-AE58-53B36386B819}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
